--- a/resources/coffee_machine/POS/requirements.xlsx
+++ b/resources/coffee_machine/POS/requirements.xlsx
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t xml:space="preserve">SRS_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre_Action</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pre_Controller_State</t>
   </si>
   <si>
@@ -40,24 +37,21 @@
     <t xml:space="preserve">POS_SRS_1</t>
   </si>
   <si>
+    <t xml:space="preserve">T_POS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_Idle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_Working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS_SRS_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">T_POS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_Idle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_Working</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS_SRS_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_POS_Paid</t>
-  </si>
-  <si>
     <t xml:space="preserve">S_Working</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">POS_SRS_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_POS_Failed</t>
   </si>
   <si>
     <t xml:space="preserve">T_Failed</t>
@@ -263,7 +254,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -276,7 +267,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.62"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -289,60 +280,52 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="E4" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
